--- a/team_specific_matrix/Chicago St._A.xlsx
+++ b/team_specific_matrix/Chicago St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2326530612244898</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="C2">
-        <v>0.5142857142857142</v>
+        <v>0.5266457680250783</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02040816326530612</v>
+        <v>0.02507836990595611</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.163265306122449</v>
+        <v>0.1661442006269593</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06938775510204082</v>
+        <v>0.06583072100313479</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0303030303030303</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06818181818181818</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7348484848484849</v>
+        <v>0.7135135135135136</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5600000000000001</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08148148148148149</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3925925925925926</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03703703703703703</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="R6">
-        <v>0.08888888888888889</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="S6">
-        <v>0.2592592592592592</v>
+        <v>0.2967032967032967</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1094890510948905</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0145985401459854</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0291970802919708</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1605839416058394</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0145985401459854</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1605839416058394</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="R7">
-        <v>0.072992700729927</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="S7">
-        <v>0.4379562043795621</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1032448377581121</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02654867256637168</v>
+        <v>0.02517162471395881</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03244837758112094</v>
+        <v>0.03432494279176201</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1179941002949852</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02654867256637168</v>
+        <v>0.02517162471395881</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1946902654867257</v>
+        <v>0.1807780320366133</v>
       </c>
       <c r="R8">
-        <v>0.08259587020648967</v>
+        <v>0.07551487414187644</v>
       </c>
       <c r="S8">
-        <v>0.415929203539823</v>
+        <v>0.4416475972540046</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1101694915254237</v>
+        <v>0.125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03389830508474576</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0847457627118644</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03389830508474576</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1779661016949153</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R9">
-        <v>0.1355932203389831</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="S9">
-        <v>0.4067796610169492</v>
+        <v>0.4144736842105263</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1213389121338912</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01359832635983264</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05230125523012552</v>
+        <v>0.05124223602484472</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1485355648535565</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01359832635983264</v>
+        <v>0.02018633540372671</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2196652719665272</v>
+        <v>0.2204968944099379</v>
       </c>
       <c r="R10">
-        <v>0.0700836820083682</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="S10">
-        <v>0.3608786610878661</v>
+        <v>0.3540372670807453</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1725663716814159</v>
+        <v>0.1480263157894737</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09292035398230089</v>
+        <v>0.09539473684210527</v>
       </c>
       <c r="K11">
-        <v>0.2433628318584071</v>
+        <v>0.2269736842105263</v>
       </c>
       <c r="L11">
-        <v>0.4734513274336283</v>
+        <v>0.5098684210526315</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01769911504424779</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.794392523364486</v>
+        <v>0.7278481012658228</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1869158878504673</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="L12">
-        <v>0.009345794392523364</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009345794392523364</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5925925925925926</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4074074074074074</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02298850574712644</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1206896551724138</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="I15">
-        <v>0.06896551724137931</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="J15">
-        <v>0.3850574712643678</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K15">
-        <v>0.03448275862068965</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005747126436781609</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06896551724137931</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.293103448275862</v>
+        <v>0.2757201646090535</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006756756756756757</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1824324324324324</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.05405405405405406</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J16">
-        <v>0.4459459459459459</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="K16">
-        <v>0.1216216216216216</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08108108108108109</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1081081081081081</v>
+        <v>0.1060606060606061</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02147239263803681</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1748466257668712</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="I17">
-        <v>0.1042944785276074</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="J17">
-        <v>0.392638036809816</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="K17">
-        <v>0.09815950920245399</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0245398773006135</v>
+        <v>0.02064220183486239</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05828220858895705</v>
+        <v>0.06192660550458716</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1257668711656442</v>
+        <v>0.1284403669724771</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04545454545454546</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2424242424242424</v>
+        <v>0.2303030303030303</v>
       </c>
       <c r="I18">
-        <v>0.06060606060606061</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="J18">
-        <v>0.3257575757575757</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0.09848484848484848</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.143939393939394</v>
+        <v>0.1393939393939394</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02043010752688172</v>
+        <v>0.02188006482982172</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2182795698924731</v>
+        <v>0.2090761750405186</v>
       </c>
       <c r="I19">
-        <v>0.06021505376344086</v>
+        <v>0.06482982171799027</v>
       </c>
       <c r="J19">
-        <v>0.3591397849462366</v>
+        <v>0.3638573743922204</v>
       </c>
       <c r="K19">
-        <v>0.1075268817204301</v>
+        <v>0.1085899513776337</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02043010752688172</v>
+        <v>0.02106969205834684</v>
       </c>
       <c r="N19">
-        <v>0.001075268817204301</v>
+        <v>0.0008103727714748784</v>
       </c>
       <c r="O19">
-        <v>0.07311827956989247</v>
+        <v>0.07617504051863858</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1397849462365591</v>
+        <v>0.1337115072933549</v>
       </c>
     </row>
   </sheetData>
